--- a/teaching/traditional_assets/database/data/norway/norway_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_banks_regional.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0625</v>
+        <v>0.0659</v>
       </c>
       <c r="E2">
-        <v>0.07769999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="F2">
-        <v>0.083</v>
+        <v>0.031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.001499018183627909</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.001209664167225459</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1224.61</v>
+        <v>855.22</v>
       </c>
       <c r="L2">
-        <v>0.4613448813024241</v>
+        <v>0.3850406732471424</v>
       </c>
       <c r="M2">
-        <v>526.8821800000001</v>
+        <v>300.99791</v>
       </c>
       <c r="N2">
-        <v>0.07317371045895871</v>
+        <v>0.04201352398207224</v>
       </c>
       <c r="O2">
-        <v>0.4302448779611468</v>
+        <v>0.3519537779752578</v>
       </c>
       <c r="P2">
-        <v>399.87418</v>
+        <v>271.14791</v>
       </c>
       <c r="Q2">
-        <v>0.05553476389604509</v>
+        <v>0.03784703760725038</v>
       </c>
       <c r="R2">
-        <v>0.3265318591224961</v>
+        <v>0.3170504782395173</v>
       </c>
       <c r="S2">
-        <v>127.008</v>
+        <v>29.84999999999999</v>
       </c>
       <c r="T2">
-        <v>0.2410557897403173</v>
+        <v>0.09917012380584302</v>
       </c>
       <c r="U2">
-        <v>962.47</v>
+        <v>1324.378</v>
       </c>
       <c r="V2">
-        <v>0.1336684059146468</v>
+        <v>0.1848577183287713</v>
       </c>
       <c r="W2">
-        <v>0.09040623620121599</v>
+        <v>0.08308535014454554</v>
       </c>
       <c r="X2">
-        <v>0.140252379714877</v>
+        <v>0.1356398849597133</v>
       </c>
       <c r="Y2">
-        <v>-0.04984614351366104</v>
+        <v>-0.05255453481516778</v>
       </c>
       <c r="Z2">
-        <v>0.06144053105932776</v>
+        <v>0.05273626369243025</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04162665657826689</v>
+        <v>0.03490800168342038</v>
       </c>
       <c r="AC2">
-        <v>-0.04174130010040399</v>
+        <v>-0.03490800168342038</v>
       </c>
       <c r="AD2">
-        <v>32914.9</v>
+        <v>35232.543</v>
       </c>
       <c r="AE2">
-        <v>108.3952316612917</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>33023.29523166129</v>
+        <v>35232.543</v>
       </c>
       <c r="AG2">
-        <v>32060.82523166129</v>
+        <v>33908.165</v>
       </c>
       <c r="AH2">
-        <v>0.8209904736935622</v>
+        <v>0.831017882388582</v>
       </c>
       <c r="AI2">
-        <v>0.7608336276889448</v>
+        <v>0.7672467973786922</v>
       </c>
       <c r="AJ2">
-        <v>0.8166021448495772</v>
+        <v>0.8255690702836876</v>
       </c>
       <c r="AK2">
-        <v>0.755409932033989</v>
+        <v>0.7603347268325568</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1859.598870056497</v>
-      </c>
-      <c r="AP2">
-        <v>1811.346058285949</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sparebank 1 Nordvest (OB:SNOR)</t>
+          <t>Aprila Bank ASA (OTCNO:APRILA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,12 +715,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0638</v>
-      </c>
-      <c r="E3">
-        <v>0.106</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -740,85 +728,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.4</v>
+        <v>-5.13</v>
       </c>
       <c r="L3">
-        <v>0.4372759856630825</v>
+        <v>-6.610824742268041</v>
       </c>
       <c r="M3">
-        <v>2.66</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.09047619047619049</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.109016393442623</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.66</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.09047619047619049</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.109016393442623</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>62.5</v>
+        <v>5.19</v>
       </c>
       <c r="V3">
-        <v>2.125850340136055</v>
+        <v>0.1376657824933687</v>
       </c>
       <c r="W3">
-        <v>0.0989456609894566</v>
+        <v>-0.45</v>
       </c>
       <c r="X3">
-        <v>0.3419372758839603</v>
+        <v>0.03486392443468427</v>
       </c>
       <c r="Y3">
-        <v>-0.2429916148945037</v>
+        <v>-0.4848639244346842</v>
       </c>
       <c r="Z3">
-        <v>0.08310496842606933</v>
+        <v>0.2102981029810298</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04100241242875009</v>
+        <v>0.03486392443468427</v>
       </c>
       <c r="AC3">
-        <v>-0.04100241242875009</v>
+        <v>-0.03486392443468427</v>
       </c>
       <c r="AD3">
-        <v>465.5</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>465.5</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>403</v>
+        <v>-5.19</v>
       </c>
       <c r="AH3">
-        <v>0.9405940594059407</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.6614094913327651</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9320074005550417</v>
+        <v>-0.159643186711781</v>
       </c>
       <c r="AK3">
-        <v>0.628411040074848</v>
+        <v>-0.6098707403055231</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +820,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sparebanken Møre (OB:MORG)</t>
+          <t>Kraft Bank ASA (OB:KRAB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,12 +828,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0182</v>
-      </c>
-      <c r="E4">
-        <v>0.0113</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -856,103 +835,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.0006573484854294369</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.000494027882348515</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>72.90000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="L4">
-        <v>0.4381009615384616</v>
+        <v>0.328125</v>
       </c>
       <c r="M4">
-        <v>18.9</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05308988764044943</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.2592592592592592</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>18.9</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.05308988764044943</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.2592592592592592</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>19.7</v>
+        <v>2.48</v>
       </c>
       <c r="V4">
-        <v>0.05533707865168539</v>
+        <v>0.03905511811023622</v>
       </c>
       <c r="W4">
-        <v>0.09507042253521128</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="X4">
-        <v>0.2146306144947542</v>
+        <v>0.03491510864496184</v>
       </c>
       <c r="Y4">
-        <v>-0.1195601919595429</v>
+        <v>0.04585412212426893</v>
       </c>
       <c r="Z4">
-        <v>0.03990697727782123</v>
+        <v>0.2826230956060941</v>
       </c>
       <c r="AA4">
-        <v>-1.971515947549232e-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04110275964692453</v>
+        <v>0.03487723812819184</v>
       </c>
       <c r="AC4">
-        <v>-0.04112247480640002</v>
+        <v>-0.03487723812819184</v>
       </c>
       <c r="AD4">
-        <v>3211.9</v>
+        <v>0.163</v>
       </c>
       <c r="AE4">
-        <v>21.29691393987729</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3233.196913939878</v>
+        <v>0.163</v>
       </c>
       <c r="AG4">
-        <v>3213.496913939878</v>
+        <v>-2.317</v>
       </c>
       <c r="AH4">
-        <v>0.900813466484006</v>
+        <v>0.002560356879191995</v>
       </c>
       <c r="AI4">
-        <v>0.8109353941648506</v>
+        <v>0.004915116244006876</v>
       </c>
       <c r="AJ4">
-        <v>0.9002660574912613</v>
+        <v>-0.03786999656767403</v>
       </c>
       <c r="AK4">
-        <v>0.8099965754135076</v>
+        <v>-0.07551412834468599</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>773.9518072289156</v>
-      </c>
-      <c r="AP4">
-        <v>774.3366057686452</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Helgeland Sparebank (OB:HELG)</t>
+          <t>SpareBank 1 Østfold Akershus (OB:SOAG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,10 +942,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.008409999999999999</v>
+        <v>0.0588</v>
       </c>
       <c r="E5">
-        <v>-0.05139999999999999</v>
+        <v>0.09539999999999998</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,28 +960,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L5">
-        <v>0.3407155025553663</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="M5">
-        <v>3.63</v>
+        <v>15.9</v>
       </c>
       <c r="N5">
-        <v>0.01819548872180451</v>
+        <v>0.04167758846657929</v>
       </c>
       <c r="O5">
-        <v>0.1815</v>
+        <v>0.418421052631579</v>
       </c>
       <c r="P5">
-        <v>3.63</v>
+        <v>15.9</v>
       </c>
       <c r="Q5">
-        <v>0.01819548872180451</v>
+        <v>0.04167758846657929</v>
       </c>
       <c r="R5">
-        <v>0.1815</v>
+        <v>0.418421052631579</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1020,55 +990,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>85.3</v>
+        <v>100.1</v>
       </c>
       <c r="V5">
-        <v>0.4275689223057644</v>
+        <v>0.2623853211009174</v>
       </c>
       <c r="W5">
-        <v>0.04850836769342712</v>
+        <v>0.09994739610731194</v>
       </c>
       <c r="X5">
-        <v>0.1698321773102672</v>
+        <v>0.06291562412116956</v>
       </c>
       <c r="Y5">
-        <v>-0.1213238096168401</v>
+        <v>0.03703177198614238</v>
       </c>
       <c r="Z5">
-        <v>0.03186061658706036</v>
+        <v>0.1042177538008828</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04117989317900242</v>
+        <v>0.03489428207604682</v>
       </c>
       <c r="AC5">
-        <v>-0.04117989317900242</v>
+        <v>-0.03489428207604682</v>
       </c>
       <c r="AD5">
-        <v>1337.9</v>
+        <v>536.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1337.9</v>
+        <v>536.7</v>
       </c>
       <c r="AG5">
-        <v>1252.6</v>
+        <v>436.6</v>
       </c>
       <c r="AH5">
-        <v>0.8702354624691037</v>
+        <v>0.5845131779568722</v>
       </c>
       <c r="AI5">
-        <v>0.7775775892130652</v>
+        <v>0.5799654203587638</v>
       </c>
       <c r="AJ5">
-        <v>0.862612767715722</v>
+        <v>0.5336755897812003</v>
       </c>
       <c r="AK5">
-        <v>0.7659756619580506</v>
+        <v>0.5290197503937962</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1085,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skue Sparebank (OB:SKUE)</t>
+          <t>SpareBank 1 BV (OB:SBVG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1094,10 +1064,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0645</v>
+        <v>0.157</v>
       </c>
       <c r="E6">
-        <v>0.0696</v>
+        <v>0.299</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,85 +1082,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.6</v>
+        <v>54.8</v>
       </c>
       <c r="L6">
-        <v>0.4249084249084249</v>
+        <v>0.4154662623199393</v>
       </c>
       <c r="M6">
-        <v>2.09</v>
+        <v>23.04</v>
       </c>
       <c r="N6">
-        <v>0.05679347826086956</v>
+        <v>0.07576455113449522</v>
       </c>
       <c r="O6">
-        <v>0.1801724137931034</v>
+        <v>0.4204379562043796</v>
       </c>
       <c r="P6">
-        <v>2.09</v>
+        <v>17.7</v>
       </c>
       <c r="Q6">
-        <v>0.05679347826086956</v>
+        <v>0.05820453798092732</v>
       </c>
       <c r="R6">
-        <v>0.1801724137931034</v>
+        <v>0.322992700729927</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.2317708333333333</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="V6">
-        <v>0.2717391304347826</v>
+        <v>0.2347911871095034</v>
       </c>
       <c r="W6">
-        <v>0.09347300564061241</v>
+        <v>0.09227142616602121</v>
       </c>
       <c r="X6">
-        <v>0.1666088449267258</v>
+        <v>0.09140500365606549</v>
       </c>
       <c r="Y6">
-        <v>-0.07313583928611338</v>
+        <v>0.0008664225099557221</v>
       </c>
       <c r="Z6">
-        <v>0.07919930374238468</v>
+        <v>0.09204401923224542</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04118731876416701</v>
+        <v>0.03490232031190803</v>
       </c>
       <c r="AC6">
-        <v>-0.04118731876416701</v>
+        <v>-0.03490232031190803</v>
       </c>
       <c r="AD6">
-        <v>240.5</v>
+        <v>862.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>240.5</v>
+        <v>862.3</v>
       </c>
       <c r="AG6">
-        <v>230.5</v>
+        <v>790.9</v>
       </c>
       <c r="AH6">
-        <v>0.8672917417958889</v>
+        <v>0.7392832647462276</v>
       </c>
       <c r="AI6">
-        <v>0.6665742793791574</v>
+        <v>0.5980718546261617</v>
       </c>
       <c r="AJ6">
-        <v>0.8623269734380845</v>
+        <v>0.722283105022831</v>
       </c>
       <c r="AK6">
-        <v>0.6570695553021665</v>
+        <v>0.5771307647402217</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1207,7 +1177,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Totens Sparebank (OB:TOTG)</t>
+          <t>Grong Sparebank (OB:GRONG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,10 +1186,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0184</v>
+        <v>0.0779</v>
       </c>
       <c r="E7">
-        <v>0.035</v>
+        <v>0.136</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,28 +1204,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.9</v>
+        <v>6.04</v>
       </c>
       <c r="L7">
-        <v>0.4623893805309734</v>
+        <v>0.305050505050505</v>
       </c>
       <c r="M7">
-        <v>6.71</v>
+        <v>2.21859</v>
       </c>
       <c r="N7">
-        <v>0.06924664602683178</v>
+        <v>0.05042250000000001</v>
       </c>
       <c r="O7">
-        <v>0.3210526315789474</v>
+        <v>0.3673162251655629</v>
       </c>
       <c r="P7">
-        <v>6.71</v>
+        <v>2.21859</v>
       </c>
       <c r="Q7">
-        <v>0.06924664602683178</v>
+        <v>0.05042250000000001</v>
       </c>
       <c r="R7">
-        <v>0.3210526315789474</v>
+        <v>0.3673162251655629</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1264,55 +1234,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>15.3</v>
+        <v>0.879</v>
       </c>
       <c r="V7">
-        <v>0.1578947368421053</v>
+        <v>0.01997727272727273</v>
       </c>
       <c r="W7">
-        <v>0.100336053768603</v>
+        <v>0.07854356306892067</v>
       </c>
       <c r="X7">
-        <v>0.1642983621524984</v>
+        <v>0.09400373962119592</v>
       </c>
       <c r="Y7">
-        <v>-0.06396230838389541</v>
+        <v>-0.01546017655227525</v>
       </c>
       <c r="Z7">
-        <v>0.05873180873180874</v>
+        <v>0.1007121057985758</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04119285214057787</v>
+        <v>0.03490276529130442</v>
       </c>
       <c r="AC7">
-        <v>-0.04119285214057787</v>
+        <v>-0.03490276529130442</v>
       </c>
       <c r="AD7">
-        <v>621.4</v>
+        <v>130.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>621.4</v>
+        <v>130.5</v>
       </c>
       <c r="AG7">
-        <v>606.1</v>
+        <v>129.621</v>
       </c>
       <c r="AH7">
-        <v>0.8650981484059586</v>
+        <v>0.7478510028653295</v>
       </c>
       <c r="AI7">
-        <v>0.7497586872586872</v>
+        <v>0.6058495821727019</v>
       </c>
       <c r="AJ7">
-        <v>0.8621621621621622</v>
+        <v>0.7465744351201755</v>
       </c>
       <c r="AK7">
-        <v>0.7450522433927474</v>
+        <v>0.604234550463591</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1329,7 +1299,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aasen Sparebank (OB:AASB-ME)</t>
+          <t>Voss Veksel- og Landmandsbank ASA (OB:VVL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1338,10 +1308,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0664</v>
+        <v>0.08349999999999999</v>
       </c>
       <c r="E8">
-        <v>0.07769999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1356,28 +1326,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.54</v>
+        <v>4.34</v>
       </c>
       <c r="L8">
-        <v>0.3982456140350877</v>
+        <v>0.3981651376146789</v>
       </c>
       <c r="M8">
-        <v>0.9786899999999999</v>
+        <v>1.6434</v>
       </c>
       <c r="N8">
-        <v>0.06703356164383562</v>
+        <v>0.03998540145985402</v>
       </c>
       <c r="O8">
-        <v>0.2155704845814978</v>
+        <v>0.3786635944700462</v>
       </c>
       <c r="P8">
-        <v>0.9786899999999999</v>
+        <v>1.6434</v>
       </c>
       <c r="Q8">
-        <v>0.06703356164383562</v>
+        <v>0.03998540145985402</v>
       </c>
       <c r="R8">
-        <v>0.2155704845814978</v>
+        <v>0.3786635944700462</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1386,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>7.49</v>
+        <v>1.23</v>
       </c>
       <c r="V8">
-        <v>0.513013698630137</v>
+        <v>0.02992700729927007</v>
       </c>
       <c r="W8">
-        <v>0.09098196392785571</v>
+        <v>0.07791741472172352</v>
       </c>
       <c r="X8">
-        <v>0.14695700199119</v>
+        <v>0.1014756743959514</v>
       </c>
       <c r="Y8">
-        <v>-0.05597503806333426</v>
+        <v>-0.02355825967422785</v>
       </c>
       <c r="Z8">
-        <v>0.09223300970873786</v>
+        <v>0.06442080378250592</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0412410488298668</v>
+        <v>0.03490389583897759</v>
       </c>
       <c r="AC8">
-        <v>-0.0412410488298668</v>
+        <v>-0.03490389583897759</v>
       </c>
       <c r="AD8">
-        <v>80.2</v>
+        <v>137.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>80.2</v>
+        <v>137.3</v>
       </c>
       <c r="AG8">
-        <v>72.71000000000001</v>
+        <v>136.07</v>
       </c>
       <c r="AH8">
-        <v>0.8459915611814347</v>
+        <v>0.7696188340807175</v>
       </c>
       <c r="AI8">
-        <v>0.6246105919003115</v>
+        <v>0.6844466600199401</v>
       </c>
       <c r="AJ8">
-        <v>0.8327797503149698</v>
+        <v>0.7680194163797484</v>
       </c>
       <c r="AK8">
-        <v>0.6013563807790919</v>
+        <v>0.6824998746050058</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1451,7 +1421,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SpareBank 1 SR-Bank ASA (OB:SRBANK)</t>
+          <t>SpareBank 1 Nord-Norge (OB:NONG)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1460,13 +1430,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0548</v>
+        <v>0.0935</v>
       </c>
       <c r="E9">
-        <v>0.0742</v>
+        <v>0.159</v>
       </c>
       <c r="F9">
-        <v>0.083</v>
+        <v>0.031</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1481,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>348.6</v>
+        <v>172.7</v>
       </c>
       <c r="L9">
-        <v>0.5072020951549542</v>
+        <v>0.4386588773177546</v>
       </c>
       <c r="M9">
-        <v>132</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="N9">
-        <v>0.04534368451787984</v>
+        <v>0.1059739070725566</v>
       </c>
       <c r="O9">
-        <v>0.378657487091222</v>
+        <v>0.5361899247249565</v>
       </c>
       <c r="P9">
-        <v>132</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.04534368451787984</v>
+        <v>0.1059739070725566</v>
       </c>
       <c r="R9">
-        <v>0.378657487091222</v>
+        <v>0.5361899247249565</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1511,55 +1481,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>155.7</v>
+        <v>55.7</v>
       </c>
       <c r="V9">
-        <v>0.05348493696540826</v>
+        <v>0.06374456397344931</v>
       </c>
       <c r="W9">
-        <v>0.135016848057632</v>
+        <v>0.1122594903796152</v>
       </c>
       <c r="X9">
-        <v>0.1310515059319159</v>
+        <v>0.1090439500065153</v>
       </c>
       <c r="Y9">
-        <v>0.003965342125716087</v>
+        <v>0.003215540373099859</v>
       </c>
       <c r="Z9">
-        <v>0.0456777898143779</v>
+        <v>0.08744419518912555</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04129905066173763</v>
+        <v>0.03490485797446796</v>
       </c>
       <c r="AC9">
-        <v>-0.04129905066173763</v>
+        <v>-0.03490485797446796</v>
       </c>
       <c r="AD9">
-        <v>13535.6</v>
+        <v>3250.7</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>13535.6</v>
+        <v>3250.7</v>
       </c>
       <c r="AG9">
-        <v>13379.9</v>
+        <v>3195</v>
       </c>
       <c r="AH9">
-        <v>0.8229979266357385</v>
+        <v>0.7881440174566614</v>
       </c>
       <c r="AI9">
-        <v>0.8387044805343676</v>
+        <v>0.674909166407142</v>
       </c>
       <c r="AJ9">
-        <v>0.8213062427106992</v>
+        <v>0.7852438065277231</v>
       </c>
       <c r="AK9">
-        <v>0.837133204029281</v>
+        <v>0.671105696521593</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1576,7 +1546,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jaeren Sparebank (OB:JAEREN)</t>
+          <t>Jæren Sparebank (OB:JAEREN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1585,10 +1555,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.161</v>
+        <v>0.0548</v>
       </c>
       <c r="E10">
-        <v>0.189</v>
+        <v>-0.0766</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1603,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.4</v>
+        <v>14.3</v>
       </c>
       <c r="L10">
-        <v>0.4150943396226415</v>
+        <v>0.4097421203438396</v>
       </c>
       <c r="M10">
-        <v>4.07</v>
+        <v>3.95</v>
       </c>
       <c r="N10">
-        <v>0.04754672897196262</v>
+        <v>0.04302832244008715</v>
       </c>
       <c r="O10">
-        <v>0.2642857142857143</v>
+        <v>0.2762237762237762</v>
       </c>
       <c r="P10">
-        <v>4.07</v>
+        <v>3.95</v>
       </c>
       <c r="Q10">
-        <v>0.04754672897196262</v>
+        <v>0.04302832244008715</v>
       </c>
       <c r="R10">
-        <v>0.2642857142857143</v>
+        <v>0.2762237762237762</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1633,55 +1603,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>9.17</v>
+        <v>8.56</v>
       </c>
       <c r="V10">
-        <v>0.1071261682242991</v>
+        <v>0.09324618736383443</v>
       </c>
       <c r="W10">
-        <v>0.07253886010362694</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="X10">
-        <v>0.1297495762867668</v>
+        <v>0.1122775026639517</v>
       </c>
       <c r="Y10">
-        <v>-0.0572107161831399</v>
+        <v>-0.0412392512978315</v>
       </c>
       <c r="Z10">
-        <v>0.05703305149884704</v>
+        <v>0.0597367475138216</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04130457469153704</v>
+        <v>0.03490522343719493</v>
       </c>
       <c r="AC10">
-        <v>-0.04130457469153704</v>
+        <v>-0.03490522343719493</v>
       </c>
       <c r="AD10">
-        <v>392.1</v>
+        <v>356.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>392.1</v>
+        <v>356.4</v>
       </c>
       <c r="AG10">
-        <v>382.93</v>
+        <v>347.84</v>
       </c>
       <c r="AH10">
-        <v>0.8208080385178982</v>
+        <v>0.7951807228915663</v>
       </c>
       <c r="AI10">
-        <v>0.6607684529828108</v>
+        <v>0.6337126600284495</v>
       </c>
       <c r="AJ10">
-        <v>0.8173009198984057</v>
+        <v>0.7911927941042671</v>
       </c>
       <c r="AK10">
-        <v>0.655443917635178</v>
+        <v>0.6280514227935866</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1698,7 +1668,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SpareBank 1 Nord-Norge (OB:NONG)</t>
+          <t>Aurskog Sparebank (OB:AURG)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1707,10 +1677,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0738</v>
+        <v>0.0713</v>
       </c>
       <c r="E11">
-        <v>0.103</v>
+        <v>0.15</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1725,85 +1695,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>240.4</v>
+        <v>11.6</v>
       </c>
       <c r="L11">
-        <v>0.5283516483516484</v>
+        <v>0.4531249999999999</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>3.78</v>
       </c>
       <c r="N11">
-        <v>0.124804992199688</v>
+        <v>0.04846153846153846</v>
       </c>
       <c r="O11">
-        <v>0.4658901830282862</v>
+        <v>0.3258620689655172</v>
       </c>
       <c r="P11">
-        <v>95.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q11">
-        <v>0.1064185424559839</v>
+        <v>0.04846153846153846</v>
       </c>
       <c r="R11">
-        <v>0.3972545757071547</v>
+        <v>0.3258620689655172</v>
       </c>
       <c r="S11">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.1473214285714286</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>50.2</v>
+        <v>35.6</v>
       </c>
       <c r="V11">
-        <v>0.05593938043236016</v>
+        <v>0.4564102564102565</v>
       </c>
       <c r="W11">
-        <v>0.153355447818321</v>
+        <v>0.08297567954220314</v>
       </c>
       <c r="X11">
-        <v>0.1067086597659076</v>
+        <v>0.1155947977994172</v>
       </c>
       <c r="Y11">
-        <v>0.04664678805241344</v>
+        <v>-0.03261911825721406</v>
       </c>
       <c r="Z11">
-        <v>0.09796533534287867</v>
+        <v>0.05887764489420423</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04143129103257713</v>
+        <v>0.03490557396738075</v>
       </c>
       <c r="AC11">
-        <v>-0.04143129103257713</v>
+        <v>-0.03490557396738075</v>
       </c>
       <c r="AD11">
-        <v>3014.1</v>
+        <v>315.8</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>3014.1</v>
+        <v>315.8</v>
       </c>
       <c r="AG11">
-        <v>2963.9</v>
+        <v>280.2</v>
       </c>
       <c r="AH11">
-        <v>0.7705739486130641</v>
+        <v>0.8019299136617573</v>
       </c>
       <c r="AI11">
-        <v>0.6620757825370676</v>
+        <v>0.6850325379609544</v>
       </c>
       <c r="AJ11">
-        <v>0.7675912257529848</v>
+        <v>0.7822445561139029</v>
       </c>
       <c r="AK11">
-        <v>0.6583079759234169</v>
+        <v>0.6586741889985895</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1820,7 +1790,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SpareBank 1 BV (OB:SBVG)</t>
+          <t>SpareBank 1 SMN (OB:MING)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1829,10 +1799,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.09470000000000001</v>
+        <v>0.0659</v>
       </c>
       <c r="E12">
-        <v>0.152</v>
+        <v>0.0352</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1847,85 +1817,85 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>56.5</v>
+        <v>189.4</v>
       </c>
       <c r="L12">
-        <v>0.4277062831188494</v>
+        <v>0.3463789319678128</v>
       </c>
       <c r="M12">
-        <v>33.4</v>
+        <v>77.28999999999999</v>
       </c>
       <c r="N12">
-        <v>0.1173989455184534</v>
+        <v>0.05249252920402064</v>
       </c>
       <c r="O12">
-        <v>0.5911504424778761</v>
+        <v>0.408078141499472</v>
       </c>
       <c r="P12">
-        <v>33.4</v>
+        <v>74.3</v>
       </c>
       <c r="Q12">
-        <v>0.1173989455184534</v>
+        <v>0.05046183102417821</v>
       </c>
       <c r="R12">
-        <v>0.5911504424778761</v>
+        <v>0.3922914466737064</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.989999999999995</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.03868547030663728</v>
       </c>
       <c r="U12">
-        <v>111.4</v>
+        <v>344.6</v>
       </c>
       <c r="V12">
-        <v>0.3915641476274165</v>
+        <v>0.2340396631350177</v>
       </c>
       <c r="W12">
-        <v>0.09673001198424927</v>
+        <v>0.09001473314005989</v>
       </c>
       <c r="X12">
-        <v>0.1066257452110124</v>
+        <v>0.1175404062096931</v>
       </c>
       <c r="Y12">
-        <v>-0.009895733226763168</v>
+        <v>-0.02752567306963323</v>
       </c>
       <c r="Z12">
-        <v>0.07943141298923075</v>
+        <v>0.07126844272978468</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04143187545409512</v>
+        <v>0.03490576901089452</v>
       </c>
       <c r="AC12">
-        <v>-0.04143187545409512</v>
+        <v>-0.03490576901089452</v>
       </c>
       <c r="AD12">
-        <v>954.3</v>
+        <v>6105</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>954.3</v>
+        <v>6105</v>
       </c>
       <c r="AG12">
-        <v>842.9</v>
+        <v>5760.4</v>
       </c>
       <c r="AH12">
-        <v>0.7703422667097191</v>
+        <v>0.8056853274210152</v>
       </c>
       <c r="AI12">
-        <v>0.6273336839337366</v>
+        <v>0.7329723499537765</v>
       </c>
       <c r="AJ12">
-        <v>0.747649458932056</v>
+        <v>0.7964273863510674</v>
       </c>
       <c r="AK12">
-        <v>0.5978862249964534</v>
+        <v>0.7214478051224247</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1942,7 +1912,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sandnes Sparebank (OB:SADG)</t>
+          <t>Aasen Sparebank (OB:AASB)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1951,10 +1921,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.012</v>
+        <v>0.07980000000000001</v>
       </c>
       <c r="E13">
-        <v>0.0701</v>
+        <v>0.0956</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1963,34 +1933,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.01413700776737561</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.01216108593245423</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>29.9</v>
+        <v>4.01</v>
       </c>
       <c r="L13">
-        <v>0.4664586583463339</v>
+        <v>0.3548672566371681</v>
       </c>
       <c r="M13">
-        <v>13.2</v>
+        <v>0.86254</v>
       </c>
       <c r="N13">
-        <v>0.07534246575342465</v>
+        <v>0.04985780346820809</v>
       </c>
       <c r="O13">
-        <v>0.4414715719063545</v>
+        <v>0.2150972568578554</v>
       </c>
       <c r="P13">
-        <v>13.2</v>
+        <v>0.86254</v>
       </c>
       <c r="Q13">
-        <v>0.07534246575342465</v>
+        <v>0.04985780346820809</v>
       </c>
       <c r="R13">
-        <v>0.4414715719063545</v>
+        <v>0.2150972568578554</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1999,67 +1969,61 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>56.8</v>
+        <v>1.27</v>
       </c>
       <c r="V13">
-        <v>0.3242009132420091</v>
+        <v>0.07341040462427745</v>
       </c>
       <c r="W13">
-        <v>0.08380044843049327</v>
+        <v>0.08319502074688796</v>
       </c>
       <c r="X13">
-        <v>0.1952802637472881</v>
+        <v>0.1266103371688274</v>
       </c>
       <c r="Y13">
-        <v>-0.1114798153167948</v>
+        <v>-0.04341531642193948</v>
       </c>
       <c r="Z13">
-        <v>0.03526859600693341</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="AA13">
-        <v>-0.0004289044267573295</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04113111173507802</v>
+        <v>0.03490658857606517</v>
       </c>
       <c r="AC13">
-        <v>-0.04156001616183536</v>
+        <v>-0.03490658857606517</v>
       </c>
       <c r="AD13">
-        <v>1398.6</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AE13">
-        <v>12.78091098944388</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1411.380910989444</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="AG13">
-        <v>1354.580910989444</v>
+        <v>78.33</v>
       </c>
       <c r="AH13">
-        <v>0.8895738636545554</v>
+        <v>0.8214654282765738</v>
       </c>
       <c r="AI13">
-        <v>0.8122209906684172</v>
+        <v>0.5927029039463886</v>
       </c>
       <c r="AJ13">
-        <v>0.8854737964492688</v>
+        <v>0.8190944264352191</v>
       </c>
       <c r="AK13">
-        <v>0.8058755989989054</v>
+        <v>0.5888145531083214</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>847.6363636363636</v>
-      </c>
-      <c r="AP13">
-        <v>820.9581278723902</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2034,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SpareBank 1 SMN (OB:MING)</t>
+          <t>SpareBank 1 SR-Bank ASA (OB:SRBNK)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2079,10 +2043,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.08310000000000001</v>
+        <v>-0.00332</v>
       </c>
       <c r="E14">
-        <v>0.0786</v>
+        <v>-0.0349</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2091,103 +2055,97 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.004564820311759265</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.003834182891597213</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>282.7</v>
+        <v>156.6</v>
       </c>
       <c r="L14">
-        <v>0.4354590264941466</v>
+        <v>0.3511210762331838</v>
       </c>
       <c r="M14">
-        <v>187.3</v>
+        <v>7.79</v>
       </c>
       <c r="N14">
-        <v>0.1264344538949642</v>
+        <v>0.002869984894816343</v>
       </c>
       <c r="O14">
-        <v>0.6625397948355147</v>
+        <v>0.04974457215836527</v>
       </c>
       <c r="P14">
-        <v>76.8</v>
+        <v>7.79</v>
       </c>
       <c r="Q14">
-        <v>0.05184285135682462</v>
+        <v>0.002869984894816343</v>
       </c>
       <c r="R14">
-        <v>0.271666077113548</v>
+        <v>0.04974457215836527</v>
       </c>
       <c r="S14">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.5899626268019221</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>140.8</v>
+        <v>233.5</v>
       </c>
       <c r="V14">
-        <v>0.09504522748751182</v>
+        <v>0.08602586302177356</v>
       </c>
       <c r="W14">
-        <v>0.1275952337967142</v>
+        <v>0.06015904114325227</v>
       </c>
       <c r="X14">
-        <v>0.1169914917122314</v>
+        <v>0.1446694327505992</v>
       </c>
       <c r="Y14">
-        <v>0.01060374208448275</v>
+        <v>-0.08451039160734694</v>
       </c>
       <c r="Z14">
-        <v>0.07673743076266083</v>
+        <v>0.02790464868923231</v>
       </c>
       <c r="AA14">
-        <v>-0.0002942253441753198</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.041366937154194</v>
+        <v>0.03490787920136747</v>
       </c>
       <c r="AC14">
-        <v>-0.04166116249836932</v>
+        <v>-0.03490787920136747</v>
       </c>
       <c r="AD14">
-        <v>5709.1</v>
+        <v>14947.2</v>
       </c>
       <c r="AE14">
-        <v>74.31740673197058</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>5783.417406731971</v>
+        <v>14947.2</v>
       </c>
       <c r="AG14">
-        <v>5642.617406731971</v>
+        <v>14713.7</v>
       </c>
       <c r="AH14">
-        <v>0.796085721490088</v>
+        <v>0.8463154318715851</v>
       </c>
       <c r="AI14">
-        <v>0.7252191032938442</v>
+        <v>0.8445604637759773</v>
       </c>
       <c r="AJ14">
-        <v>0.7920555333567652</v>
+        <v>0.8442563690612808</v>
       </c>
       <c r="AK14">
-        <v>0.7202804310756536</v>
+        <v>0.842482264224407</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>479.7563025210084</v>
-      </c>
-      <c r="AP14">
-        <v>474.1695299774765</v>
       </c>
     </row>
     <row r="15">
@@ -2198,7 +2156,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SpareBank 1 Østfold Akershus (OB:SOAG)</t>
+          <t>Helgeland Sparebank (OB:HELG)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2207,10 +2165,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.0625</v>
+        <v>0.0622</v>
       </c>
       <c r="E15">
-        <v>0.116</v>
+        <v>0.09140000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2225,82 +2183,85 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43.4</v>
+        <v>32.6</v>
       </c>
       <c r="L15">
-        <v>0.4769230769230769</v>
+        <v>0.4163473818646233</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>5.98</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0.1834355828220859</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>5.98</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.1834355828220859</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>11</v>
+        <v>99.8</v>
       </c>
       <c r="V15">
-        <v>0.03249630723781388</v>
+        <v>0.4768275203057811</v>
       </c>
       <c r="W15">
-        <v>0.1042016806722689</v>
+        <v>0.08522875816993464</v>
       </c>
       <c r="X15">
-        <v>0.07361242022794443</v>
+        <v>0.1487774068441948</v>
       </c>
       <c r="Y15">
-        <v>0.03058926044432447</v>
+        <v>-0.06354864867426013</v>
       </c>
       <c r="Z15">
-        <v>0.0922266139657444</v>
+        <v>0.04788697938963977</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04182143770243866</v>
+        <v>0.03490812416547329</v>
       </c>
       <c r="AC15">
-        <v>-0.04182143770243866</v>
+        <v>-0.03490812416547329</v>
       </c>
       <c r="AD15">
-        <v>542.8</v>
+        <v>1195.7</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>542.8</v>
+        <v>1195.7</v>
       </c>
       <c r="AG15">
-        <v>531.8</v>
+        <v>1095.9</v>
       </c>
       <c r="AH15">
-        <v>0.6159083172585952</v>
+        <v>0.8510320284697509</v>
       </c>
       <c r="AI15">
-        <v>0.5880823401950162</v>
+        <v>0.7519179977361339</v>
       </c>
       <c r="AJ15">
-        <v>0.6110536596575893</v>
+        <v>0.8396414342629482</v>
       </c>
       <c r="AK15">
-        <v>0.5831140350877192</v>
+        <v>0.7353059581320451</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2317,7 +2278,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aprila Bank ASA (OTCNO:APRILA)</t>
+          <t>Surnadal Sparebank (OB:SUSB)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2338,82 +2299,85 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-3.55</v>
+        <v>8.4</v>
       </c>
       <c r="L16">
-        <v>-7.473684210526316</v>
+        <v>0.4640883977900552</v>
       </c>
       <c r="M16">
-        <v>-0</v>
+        <v>1.50894</v>
       </c>
       <c r="N16">
-        <v>-0</v>
+        <v>0.05389071428571428</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1796357142857143</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>1.50894</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.05389071428571428</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.1796357142857143</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
       <c r="U16">
-        <v>7.71</v>
+        <v>0.343</v>
       </c>
       <c r="V16">
-        <v>0.2578595317725753</v>
+        <v>0.01225</v>
       </c>
       <c r="W16">
-        <v>-0.2151515151515151</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="X16">
-        <v>0.04337507684524047</v>
+        <v>0.1557137252104492</v>
       </c>
       <c r="Y16">
-        <v>-0.2585265919967556</v>
+        <v>-0.0396916257629354</v>
       </c>
       <c r="Z16">
-        <v>0.06634078212290502</v>
+        <v>0.07350253807106599</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04337507684524047</v>
+        <v>0.03490850534088304</v>
       </c>
       <c r="AC16">
-        <v>-0.04337507684524047</v>
+        <v>-0.03490850534088304</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>169.7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>169.7</v>
       </c>
       <c r="AG16">
-        <v>-7.71</v>
+        <v>169.357</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.8583712696004047</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.6423164269492808</v>
       </c>
       <c r="AJ16">
-        <v>-0.3474538080216314</v>
+        <v>0.858125123507147</v>
       </c>
       <c r="AK16">
-        <v>-2.089430894308943</v>
+        <v>0.6418514574182228</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2430,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRAbank ASA (OB:BRA-ME)</t>
+          <t>Totens Sparebank (OB:TOTG)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2438,6 +2402,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D17">
+        <v>0.0625</v>
+      </c>
+      <c r="E17">
+        <v>0.106</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2451,85 +2421,85 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.76</v>
+        <v>18.8</v>
       </c>
       <c r="L17">
-        <v>0.03392857142857143</v>
+        <v>0.4263038548752834</v>
       </c>
       <c r="M17">
-        <v>0.016</v>
+        <v>11.06</v>
       </c>
       <c r="N17">
-        <v>0.0006130268199233716</v>
+        <v>0.1082191780821918</v>
       </c>
       <c r="O17">
-        <v>0.02105263157894737</v>
+        <v>0.5882978723404254</v>
       </c>
       <c r="P17">
-        <v>0.016</v>
+        <v>6.14</v>
       </c>
       <c r="Q17">
-        <v>0.0006130268199233716</v>
+        <v>0.06007827788649706</v>
       </c>
       <c r="R17">
-        <v>0.02105263157894737</v>
+        <v>0.326595744680851</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4.919999999999999</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.4448462929475587</v>
       </c>
       <c r="U17">
-        <v>19.2</v>
+        <v>11.6</v>
       </c>
       <c r="V17">
-        <v>0.7356321839080459</v>
+        <v>0.1135029354207436</v>
       </c>
       <c r="W17">
-        <v>0.01098265895953757</v>
+        <v>0.09064609450337512</v>
       </c>
       <c r="X17">
-        <v>0.04730533301649427</v>
+        <v>0.1722187403404947</v>
       </c>
       <c r="Y17">
-        <v>-0.0363226740569567</v>
+        <v>-0.08157264583711961</v>
       </c>
       <c r="Z17">
-        <v>0.3154929577464788</v>
+        <v>0.05421020282728949</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.04374719821593217</v>
+        <v>0.03490927718035049</v>
       </c>
       <c r="AC17">
-        <v>-0.04374719821593217</v>
+        <v>-0.03490927718035049</v>
       </c>
       <c r="AD17">
-        <v>5.44</v>
+        <v>704</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>5.44</v>
+        <v>704</v>
       </c>
       <c r="AG17">
-        <v>-13.76</v>
+        <v>692.4</v>
       </c>
       <c r="AH17">
-        <v>0.1724793912492074</v>
+        <v>0.8732324485239394</v>
       </c>
       <c r="AI17">
-        <v>0.05571487095452684</v>
+        <v>0.7720144752714113</v>
       </c>
       <c r="AJ17">
-        <v>-1.115072933549432</v>
+        <v>0.8713818273345079</v>
       </c>
       <c r="AK17">
-        <v>-0.1754207037225905</v>
+        <v>0.769076974341886</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2546,7 +2516,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instabank ASA (OTCNO:INSTA)</t>
+          <t>Skue Sparebank (OB:SKUE)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2554,6 +2524,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D18">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.217</v>
+      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2567,82 +2543,85 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.8</v>
+        <v>11.8</v>
       </c>
       <c r="L18">
-        <v>0.2122905027932961</v>
+        <v>0.4013605442176871</v>
       </c>
       <c r="M18">
-        <v>-0</v>
+        <v>2.13</v>
       </c>
       <c r="N18">
-        <v>-0</v>
+        <v>0.05132530120481928</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>0.1805084745762712</v>
       </c>
       <c r="P18">
-        <v>-0</v>
+        <v>2.13</v>
       </c>
       <c r="Q18">
-        <v>-0</v>
+        <v>0.05132530120481928</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0.1805084745762712</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
       <c r="U18">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.2481927710843374</v>
       </c>
       <c r="W18">
-        <v>0.07102803738317756</v>
+        <v>0.09808811305070657</v>
       </c>
       <c r="X18">
-        <v>0.04738139640504162</v>
+        <v>0.1865510120574135</v>
       </c>
       <c r="Y18">
-        <v>0.02364664097813594</v>
+        <v>-0.08846289900670697</v>
       </c>
       <c r="Z18">
-        <v>0.3064019171516604</v>
+        <v>0.08380843785632838</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04427252713778519</v>
+        <v>0.03490982698875326</v>
       </c>
       <c r="AC18">
-        <v>-0.04427252713778519</v>
+        <v>-0.03490982698875326</v>
       </c>
       <c r="AD18">
-        <v>7.16</v>
+        <v>315.7</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>7.16</v>
+        <v>315.7</v>
       </c>
       <c r="AG18">
-        <v>7.16</v>
+        <v>305.4</v>
       </c>
       <c r="AH18">
-        <v>0.1752325012236907</v>
+        <v>0.8838185890257558</v>
       </c>
       <c r="AI18">
-        <v>0.1053560918187169</v>
+        <v>0.651062074654568</v>
       </c>
       <c r="AJ18">
-        <v>0.1752325012236907</v>
+        <v>0.8803689824156817</v>
       </c>
       <c r="AK18">
-        <v>0.1053560918187169</v>
+        <v>0.6434892541087232</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2659,7 +2638,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Høland og Setskog Sparebank (OB:HSPG)</t>
+          <t>Sandnes Sparebank (OB:SADG)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2668,10 +2647,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.03759999999999999</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="E19">
-        <v>0.0641</v>
+        <v>0.532</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2686,85 +2665,85 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.72</v>
+        <v>28.8</v>
       </c>
       <c r="L19">
-        <v>0.3788079470198675</v>
+        <v>0.4549763033175356</v>
       </c>
       <c r="M19">
-        <v>1.14</v>
+        <v>27.7</v>
       </c>
       <c r="N19">
-        <v>0.125</v>
+        <v>0.1526170798898072</v>
       </c>
       <c r="O19">
-        <v>0.1993006993006993</v>
+        <v>0.9618055555555556</v>
       </c>
       <c r="P19">
-        <v>1.14</v>
+        <v>11.1</v>
       </c>
       <c r="Q19">
-        <v>0.125</v>
+        <v>0.06115702479338843</v>
       </c>
       <c r="R19">
-        <v>0.1993006993006993</v>
+        <v>0.3854166666666666</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.5992779783393501</v>
       </c>
       <c r="U19">
-        <v>23.9</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="V19">
-        <v>2.620614035087719</v>
+        <v>0.3807162534435262</v>
       </c>
       <c r="W19">
-        <v>0.07750677506775068</v>
+        <v>0.08837066584841977</v>
       </c>
       <c r="X19">
-        <v>0.3615795258207182</v>
+        <v>0.2022379096879535</v>
       </c>
       <c r="Y19">
-        <v>-0.2840727507529676</v>
+        <v>-0.1138672438395338</v>
       </c>
       <c r="Z19">
-        <v>0.08324145534729877</v>
+        <v>0.0379564669904659</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.04541186158437584</v>
+        <v>0.03491033232162086</v>
       </c>
       <c r="AC19">
-        <v>-0.04541186158437584</v>
+        <v>-0.03491033232162086</v>
       </c>
       <c r="AD19">
-        <v>153.9</v>
+        <v>1523.5</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>153.9</v>
+        <v>1523.5</v>
       </c>
       <c r="AG19">
-        <v>130</v>
+        <v>1454.4</v>
       </c>
       <c r="AH19">
-        <v>0.9440559440559441</v>
+        <v>0.8935483870967742</v>
       </c>
       <c r="AI19">
-        <v>0.6824833702882483</v>
+        <v>0.830879144851658</v>
       </c>
       <c r="AJ19">
-        <v>0.9344450833812535</v>
+        <v>0.8890518980377774</v>
       </c>
       <c r="AK19">
-        <v>0.6448412698412699</v>
+        <v>0.8242561632190423</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2781,7 +2760,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Grong Sparebank (OB:GRONG-ME)</t>
+          <t>Sparebanken Møre (OB:MORG)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2790,10 +2769,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.125</v>
+        <v>0.0216</v>
       </c>
       <c r="E20">
-        <v>0.126</v>
+        <v>0.0387</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2808,28 +2787,28 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.77</v>
+        <v>64.8</v>
       </c>
       <c r="L20">
-        <v>0.3036842105263158</v>
+        <v>0.429708222811671</v>
       </c>
       <c r="M20">
-        <v>2.28987</v>
+        <v>17.8</v>
       </c>
       <c r="N20">
-        <v>0.06378467966573817</v>
+        <v>0.052245377164661</v>
       </c>
       <c r="O20">
-        <v>0.3968578856152513</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="P20">
-        <v>2.28987</v>
+        <v>17.8</v>
       </c>
       <c r="Q20">
-        <v>0.06378467966573817</v>
+        <v>0.052245377164661</v>
       </c>
       <c r="R20">
-        <v>0.3968578856152513</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2838,55 +2817,55 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>15.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="V20">
-        <v>0.4233983286908078</v>
+        <v>0.2036982682712064</v>
       </c>
       <c r="W20">
-        <v>0.07562254259501966</v>
+        <v>0.08596444680286548</v>
       </c>
       <c r="X20">
-        <v>0.114231621018218</v>
+        <v>0.2398927511504959</v>
       </c>
       <c r="Y20">
-        <v>-0.03860907842319831</v>
+        <v>-0.1539283043476304</v>
       </c>
       <c r="Z20">
-        <v>0.08792225821378992</v>
+        <v>0.0382159148504815</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.04742008896108915</v>
+        <v>0.03491125771143213</v>
       </c>
       <c r="AC20">
-        <v>-0.04742008896108915</v>
+        <v>-0.03491125771143213</v>
       </c>
       <c r="AD20">
-        <v>134.9</v>
+        <v>3503.2</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>134.9</v>
+        <v>3503.2</v>
       </c>
       <c r="AG20">
-        <v>119.7</v>
+        <v>3433.8</v>
       </c>
       <c r="AH20">
-        <v>0.7898126463700234</v>
+        <v>0.9113660605114597</v>
       </c>
       <c r="AI20">
-        <v>0.6369216241737488</v>
+        <v>0.8223860275130287</v>
       </c>
       <c r="AJ20">
-        <v>0.769280205655527</v>
+        <v>0.9097363889256855</v>
       </c>
       <c r="AK20">
-        <v>0.6088504577822991</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2903,7 +2882,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Voss Veksel- og Landmandsbank ASA (OB:VVL)</t>
+          <t>Sogn Sparebank (OB:SOGN)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2912,10 +2891,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.0353</v>
+        <v>0.106</v>
       </c>
       <c r="E21">
-        <v>0.0386</v>
+        <v>0.0571</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2930,85 +2909,85 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.77</v>
+        <v>2.45</v>
       </c>
       <c r="L21">
-        <v>0.4112068965517241</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="M21">
-        <v>1.728</v>
+        <v>0.233</v>
       </c>
       <c r="N21">
-        <v>0.04419437340153452</v>
+        <v>0.03102529960053263</v>
       </c>
       <c r="O21">
-        <v>0.3622641509433963</v>
+        <v>0.09510204081632653</v>
       </c>
       <c r="P21">
-        <v>1.72</v>
+        <v>0.233</v>
       </c>
       <c r="Q21">
-        <v>0.04398976982097186</v>
+        <v>0.03102529960053263</v>
       </c>
       <c r="R21">
-        <v>0.3605870020964361</v>
+        <v>0.09510204081632653</v>
       </c>
       <c r="S21">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.004629629629629634</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>35.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="V21">
-        <v>0.907928388746803</v>
+        <v>8.575233022636485</v>
       </c>
       <c r="W21">
-        <v>0.08983050847457626</v>
+        <v>0.0249237029501526</v>
       </c>
       <c r="X21">
-        <v>0.1152325558977685</v>
+        <v>0.25337931260514</v>
       </c>
       <c r="Y21">
-        <v>-0.02540204742319228</v>
+        <v>-0.2284556096549874</v>
       </c>
       <c r="Z21">
-        <v>0.05566218809980806</v>
+        <v>0.1538667380251539</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.04743196669645269</v>
+        <v>0.03491151806774971</v>
       </c>
       <c r="AC21">
-        <v>-0.04743196669645269</v>
+        <v>-0.03491151806774971</v>
       </c>
       <c r="AD21">
-        <v>149</v>
+        <v>82.3</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>149</v>
+        <v>82.3</v>
       </c>
       <c r="AG21">
-        <v>113.5</v>
+        <v>17.89999999999999</v>
       </c>
       <c r="AH21">
-        <v>0.7921318447634237</v>
+        <v>0.9163790223805812</v>
       </c>
       <c r="AI21">
-        <v>0.727894479726429</v>
+        <v>0.4567147613762486</v>
       </c>
       <c r="AJ21">
-        <v>0.7437745740498034</v>
+        <v>0.7044470680834317</v>
       </c>
       <c r="AK21">
-        <v>0.6708037825059102</v>
+        <v>0.1545768566493954</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3025,7 +3004,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aurskog Sparebank (OB:AURG)</t>
+          <t>Sparebank 1 Nordvest (OB:SNOR)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3034,10 +3013,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.059</v>
+        <v>0.0646</v>
       </c>
       <c r="E22">
-        <v>0.102</v>
+        <v>0.136</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3052,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.1</v>
+        <v>17</v>
       </c>
       <c r="L22">
-        <v>0.4600760456273764</v>
+        <v>0.3640256959314775</v>
       </c>
       <c r="M22">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="N22">
-        <v>0.03917525773195876</v>
+        <v>0.09013157894736844</v>
       </c>
       <c r="O22">
-        <v>0.2198347107438017</v>
+        <v>0.1611764705882353</v>
       </c>
       <c r="P22">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="Q22">
-        <v>0.03917525773195876</v>
+        <v>0.09013157894736844</v>
       </c>
       <c r="R22">
-        <v>0.2198347107438017</v>
+        <v>0.1611764705882353</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3082,55 +3061,55 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>29.7</v>
+        <v>112.9</v>
       </c>
       <c r="V22">
-        <v>0.4374079528718703</v>
+        <v>3.713815789473685</v>
       </c>
       <c r="W22">
-        <v>0.08618233618233617</v>
+        <v>0.07169970476592155</v>
       </c>
       <c r="X22">
-        <v>0.1335477574385641</v>
+        <v>0.3414392882176354</v>
       </c>
       <c r="Y22">
-        <v>-0.04736542125622789</v>
+        <v>-0.2697395834517138</v>
       </c>
       <c r="Z22">
-        <v>0.05834072759538598</v>
+        <v>0.07317799332466271</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.0476108016558291</v>
+        <v>0.03491268935680216</v>
       </c>
       <c r="AC22">
-        <v>-0.0476108016558291</v>
+        <v>-0.03491268935680216</v>
       </c>
       <c r="AD22">
-        <v>324.7</v>
+        <v>467.4</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>324.7</v>
+        <v>467.4</v>
       </c>
       <c r="AG22">
-        <v>295</v>
+        <v>354.5</v>
       </c>
       <c r="AH22">
-        <v>0.8270504330106978</v>
+        <v>0.9389312977099237</v>
       </c>
       <c r="AI22">
-        <v>0.6990312163616792</v>
+        <v>0.6564606741573034</v>
       </c>
       <c r="AJ22">
-        <v>0.8128961146321301</v>
+        <v>0.9210184463497013</v>
       </c>
       <c r="AK22">
-        <v>0.6784728610855566</v>
+        <v>0.5917209147053913</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3147,7 +3126,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nidaros Sparebank (OB:NISB-ME)</t>
+          <t>Høland og Setskog Sparebank (OB:HSPG)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3155,6 +3134,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D23">
+        <v>0.0607</v>
+      </c>
+      <c r="E23">
+        <v>0.141</v>
+      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -3168,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.18</v>
+        <v>5.63</v>
       </c>
       <c r="L23">
-        <v>0.3192771084337349</v>
+        <v>0.3778523489932886</v>
       </c>
       <c r="M23">
-        <v>0.7119</v>
+        <v>1.21</v>
       </c>
       <c r="N23">
-        <v>0.04978321678321678</v>
+        <v>0.1186274509803922</v>
       </c>
       <c r="O23">
-        <v>0.2238679245283019</v>
+        <v>0.2149200710479574</v>
       </c>
       <c r="P23">
-        <v>0.7119</v>
+        <v>1.21</v>
       </c>
       <c r="Q23">
-        <v>0.04978321678321678</v>
+        <v>0.1186274509803922</v>
       </c>
       <c r="R23">
-        <v>0.2238679245283019</v>
+        <v>0.2149200710479574</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3198,55 +3183,55 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>4.52</v>
+        <v>24.9</v>
       </c>
       <c r="V23">
-        <v>0.3160839160839161</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="W23">
-        <v>0.07327188940092166</v>
+        <v>0.07863128491620112</v>
       </c>
       <c r="X23">
-        <v>0.1612615424796676</v>
+        <v>0.4139167733906176</v>
       </c>
       <c r="Y23">
-        <v>-0.08798965307874598</v>
+        <v>-0.3352854884744164</v>
       </c>
       <c r="Z23">
-        <v>0.07410714285714286</v>
+        <v>0.07390873015873016</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.04779031877974202</v>
+        <v>0.03491326550016803</v>
       </c>
       <c r="AC23">
-        <v>-0.04779031877974202</v>
+        <v>-0.03491326550016803</v>
       </c>
       <c r="AD23">
-        <v>89.40000000000001</v>
+        <v>193.9</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>89.40000000000001</v>
+        <v>193.9</v>
       </c>
       <c r="AG23">
-        <v>84.88000000000001</v>
+        <v>169</v>
       </c>
       <c r="AH23">
-        <v>0.8621022179363549</v>
+        <v>0.9500244977951985</v>
       </c>
       <c r="AI23">
-        <v>0.658321060382916</v>
+        <v>0.7254021698466143</v>
       </c>
       <c r="AJ23">
-        <v>0.8558177051824966</v>
+        <v>0.9430803571428572</v>
       </c>
       <c r="AK23">
-        <v>0.6465569774527727</v>
+        <v>0.6971947194719472</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3263,7 +3248,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sogn Sparebank (OB:SOGN)</t>
+          <t>Instabank ASA (OB:INSTA)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3271,12 +3256,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D24">
-        <v>0.1</v>
-      </c>
-      <c r="E24">
-        <v>0.114</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -3290,85 +3269,82 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.95</v>
+        <v>4.64</v>
       </c>
       <c r="L24">
-        <v>0.2687074829931973</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="M24">
-        <v>0.38</v>
+        <v>-0</v>
       </c>
       <c r="N24">
-        <v>0.04928664072632944</v>
+        <v>-0</v>
       </c>
       <c r="O24">
-        <v>0.09620253164556962</v>
+        <v>-0</v>
       </c>
       <c r="P24">
-        <v>0.38</v>
+        <v>-0</v>
       </c>
       <c r="Q24">
-        <v>0.04928664072632944</v>
+        <v>-0</v>
       </c>
       <c r="R24">
-        <v>0.09620253164556962</v>
+        <v>-0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
-        <v>78.3</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>10.1556420233463</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.08178053830227744</v>
+        <v>0.07631578947368421</v>
       </c>
       <c r="X24">
-        <v>0.2138422918605898</v>
+        <v>0.03695517815551186</v>
       </c>
       <c r="Y24">
-        <v>-0.1320617535583123</v>
+        <v>0.03936061131817235</v>
       </c>
       <c r="Z24">
-        <v>0.3108742545362264</v>
+        <v>0.2589758681577399</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.04798646260489789</v>
+        <v>0.03535751665289152</v>
       </c>
       <c r="AC24">
-        <v>-0.04798646260489789</v>
+        <v>-0.03535751665289152</v>
       </c>
       <c r="AD24">
-        <v>69.7</v>
+        <v>6.88</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>69.7</v>
+        <v>6.88</v>
       </c>
       <c r="AG24">
-        <v>-8.599999999999994</v>
+        <v>6.88</v>
       </c>
       <c r="AH24">
-        <v>0.9004004650561944</v>
+        <v>0.09492273730684328</v>
       </c>
       <c r="AI24">
-        <v>0.413895486935867</v>
+        <v>0.1015048686928297</v>
       </c>
       <c r="AJ24">
-        <v>9.662921348314661</v>
+        <v>0.09492273730684328</v>
       </c>
       <c r="AK24">
-        <v>-0.09544950055493888</v>
+        <v>0.1015048686928297</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3385,7 +3361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Surnadal Sparebank (OB:SUSB-ME)</t>
+          <t>Nidaros Sparebank (OB:NISB)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3406,28 +3382,28 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.91</v>
+        <v>2.81</v>
       </c>
       <c r="L25">
-        <v>0.4213414634146342</v>
+        <v>0.2970401691331924</v>
       </c>
       <c r="M25">
-        <v>1.01772</v>
+        <v>0.6644399999999999</v>
       </c>
       <c r="N25">
-        <v>0.06168000000000001</v>
+        <v>0.05273333333333333</v>
       </c>
       <c r="O25">
-        <v>0.1472821997105644</v>
+        <v>0.2364555160142348</v>
       </c>
       <c r="P25">
-        <v>1.01772</v>
+        <v>0.6644399999999999</v>
       </c>
       <c r="Q25">
-        <v>0.06168000000000001</v>
+        <v>0.05273333333333333</v>
       </c>
       <c r="R25">
-        <v>0.1472821997105644</v>
+        <v>0.2364555160142348</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3436,55 +3412,55 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>4.65</v>
+        <v>0.526</v>
       </c>
       <c r="V25">
-        <v>0.2818181818181819</v>
+        <v>0.04174603174603175</v>
       </c>
       <c r="W25">
-        <v>0.0930013458950202</v>
+        <v>0.06056034482758621</v>
       </c>
       <c r="X25">
-        <v>0.2473687707338969</v>
+        <v>0.1723856645959358</v>
       </c>
       <c r="Y25">
-        <v>-0.1543674248388767</v>
+        <v>-0.1118253197683496</v>
       </c>
       <c r="Z25">
-        <v>0.06663145492219558</v>
+        <v>0.07205971968312005</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.04806320367748359</v>
+        <v>0.04225290184832955</v>
       </c>
       <c r="AC25">
-        <v>-0.04806320367748359</v>
+        <v>-0.04225290184832955</v>
       </c>
       <c r="AD25">
-        <v>178.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>178.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AG25">
-        <v>173.85</v>
+        <v>86.37400000000001</v>
       </c>
       <c r="AH25">
-        <v>0.9153846153846154</v>
+        <v>0.8733668341708544</v>
       </c>
       <c r="AI25">
-        <v>0.7114388202471104</v>
+        <v>0.6233859397417504</v>
       </c>
       <c r="AJ25">
-        <v>0.913317572892041</v>
+        <v>0.8726938387859439</v>
       </c>
       <c r="AK25">
-        <v>0.705989847715736</v>
+        <v>0.6219594740556187</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3501,7 +3477,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lillestrøm Sparebank (OB:LSTSB-ME)</t>
+          <t>Lillestrøm Sparebank (OB:LSTSB)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3510,10 +3486,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.0136</v>
+        <v>0.0571</v>
       </c>
       <c r="E26">
-        <v>0.0348</v>
+        <v>0.0808</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3528,82 +3504,85 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>9.960000000000001</v>
+        <v>8.31</v>
       </c>
       <c r="L26">
-        <v>0.4980000000000001</v>
+        <v>0.4093596059113301</v>
       </c>
       <c r="M26">
-        <v>-0</v>
+        <v>0.897</v>
       </c>
       <c r="N26">
-        <v>-0</v>
+        <v>0.05862745098039215</v>
       </c>
       <c r="O26">
-        <v>-0</v>
+        <v>0.107942238267148</v>
       </c>
       <c r="P26">
-        <v>-0</v>
+        <v>0.897</v>
       </c>
       <c r="Q26">
-        <v>-0</v>
+        <v>0.05862745098039215</v>
       </c>
       <c r="R26">
-        <v>-0</v>
+        <v>0.107942238267148</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
       <c r="U26">
-        <v>8.43</v>
+        <v>0.6</v>
       </c>
       <c r="V26">
-        <v>0.6338345864661653</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="W26">
-        <v>0.101219512195122</v>
+        <v>0.08593588417786971</v>
       </c>
       <c r="X26">
-        <v>0.4661589996945301</v>
+        <v>0.3759267766669955</v>
       </c>
       <c r="Y26">
-        <v>-0.3649394874994081</v>
+        <v>-0.2899908924891258</v>
       </c>
       <c r="Z26">
-        <v>0.05104384666428462</v>
+        <v>0.05252671617460605</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.04827788987459792</v>
+        <v>0.04285695726716618</v>
       </c>
       <c r="AC26">
-        <v>-0.04827788987459792</v>
+        <v>-0.04285695726716618</v>
       </c>
       <c r="AD26">
-        <v>298.2</v>
+        <v>261.7</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>298.2</v>
+        <v>261.7</v>
       </c>
       <c r="AG26">
-        <v>289.77</v>
+        <v>261.1</v>
       </c>
       <c r="AH26">
-        <v>0.9573033707865168</v>
+        <v>0.9447653429602888</v>
       </c>
       <c r="AI26">
-        <v>0.7551278804760699</v>
+        <v>0.6925112463614713</v>
       </c>
       <c r="AJ26">
-        <v>0.9561157488369023</v>
+        <v>0.9446454413892909</v>
       </c>
       <c r="AK26">
-        <v>0.7497865293554481</v>
+        <v>0.6920222634508348</v>
       </c>
       <c r="AL26">
         <v>0</v>
